--- a/DOM_Banner/output/dept_banner/Merri Pendergrass_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Merri Pendergrass_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,520 +360,246 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>authors_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>author</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>ab</t>
+          <t>publication_date</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>publication_date</t>
+          <t>so</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>so</t>
+          <t>host_organization</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>so_id</t>
+          <t>url</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>host_organization</t>
+          <t>license</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>issn_l</t>
+          <t>version</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>oa_status</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>pdf_url</t>
+          <t>language</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>license</t>
+          <t>cited_by_count</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>version</t>
+          <t>publication_year</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>first_page</t>
+          <t>pmid</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>last_page</t>
+          <t>doi</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>issue</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa_anywhere</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>oa_status</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>oa_url</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>any_repository_has_fulltext</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>language</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>grants</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_count</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>publication_year</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_api_url</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>ids</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>doi</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
           <t>type</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>referenced_works</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>related_works</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>is_paratext</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>is_retracted</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Sawsan Kurdi, Ahmad Alamer, Haytham Wali, Aisha F. Badr, Merri Pendergrass, Nehad J. Ahmed, Ivo Abraham, Maryam Fazel</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4323543232</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Proof-of-Concept Study of Using Supervised Machine Learning Algorithms to Predict Self-Care and Glycemic Control in Type 1 Diabetes Patients on Insulin Pump Therapy</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>list(au_id = c("https://openalex.org/A5030394637", "https://openalex.org/A5051388997", "https://openalex.org/A5000979409", "https://openalex.org/A5079106867", "https://openalex.org/A5037964846", "https://openalex.org/A5029535866", "https://openalex.org/A5031658471", "https://openalex.org/A5028806064"), au_display_name = c("Sawsan Kurdi", "Ahmad Alamer", "Haytham Wali", "Aisha F. Badr", "Merri Pendergrass", "Nehad J. Ahmed", "Ivo Abraham", "Maryam Fazel"), au_orcid = c("https://orcid.org/0000-0003-0644-6110", 
-"https://orcid.org/0000-0002-2091-1376", "https://orcid.org/0000-0001-6279-3809", "https://orcid.org/0000-0002-5067-2441", NA, "https://orcid.org/0000-0003-4215-6225", "https://orcid.org/0000-0002-5224-4977", "https://orcid.org/0000-0001-5329-4522"), author_position = c("first", "middle", "middle", "middle", "middle", "middle", "middle", "last"), au_affiliation_raw = c("", "", "", "", "", "", "", ""), institution_id = c(NA, NA, NA, NA, NA, NA, NA, NA), institution_display_name = c(NA, NA, NA, NA, 
-NA, NA, NA, NA), institution_ror = c(NA, NA, NA, NA, NA, NA, NA, NA), institution_country_code = c(NA, NA, NA, NA, NA, NA, NA, NA), institution_type = c(NA, NA, NA, NA, NA, NA, NA, NA), institution_lineage = c(NA, NA, NA, NA, NA, NA, NA, NA))</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Using supervised machine learning algorithms (SMLAs), we built models to predict the probability of type 1 diabetes mellitus patients on insulin pump therapy for meeting insulin pump self-management behavioral (IPSMB) criteria and achieving good glycemic response within 6 months.This was a single-center retrospective chart review of 100 adult type 1 diabetes mellitus patients on insulin pump therapy (≥6 months). Three SMLAs were deployed: multivariable logistic regression (LR), random forest (RF), and K-nearest neighbor (k-NN); validated using repeated three-fold cross-validation. Performance metrics included area under the curve-Receiver of characteristics for discrimination and Brier scores for calibration.Variables predictive of adherence with IPSMB criteria were baseline hemoglobin A1c, continuous glucose monitoring, and sex. The models had comparable discriminatory power (LR = 0.74; RF = 0.74; k-NN = 0.72), with the RF model showing better calibration (Brier = 0.151). Predictors of the good glycemic response included baseline hemoglobin A1c, entering carbohydrates, and following the recommended bolus dose, with models comparable in discriminatory power (LR = 0.81, RF = 0.80, k-NN = 0.78) but the RF model being better calibrated (Brier = 0.099).These proof-of-concept analyses demonstrate the feasibility of using SMLAs to develop clinically relevant predictive models of adherence with IPSMB criteria and glycemic control within 6 months. Subject to further study, nonlinear prediction models may perform better.</t>
+          <t>2023-06-01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2023-06-01</t>
+          <t>Endocrine Practice</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Endocrine Practice</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://openalex.org/S165390330</t>
+          <t>https://doi.org/10.1016/j.eprac.2023.03.002</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1530-891X</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>https://pubmed.ncbi.nlm.nih.gov/36898528</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1016/j.eprac.2023.03.002</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>448</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>455</t>
-        </is>
-      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>closed</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W4323543232</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W4323543232", doi = "https://doi.org/10.1016/j.eprac.2023.03.002", pmid = "https://pubmed.ncbi.nlm.nih.gov/36898528")</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.eprac.2023.03.002</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
           <t>article</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W1481343876", "https://openalex.org/W1973361408", "https://openalex.org/W2014375805", "https://openalex.org/W2035018400", "https://openalex.org/W2037668591", "https://openalex.org/W2083186868", "https://openalex.org/W2085017501", "https://openalex.org/W2086923543", "https://openalex.org/W2095152560", "https://openalex.org/W2105346472", "https://openalex.org/W2107926840", "https://openalex.org/W2119910794", "https://openalex.org/W2144750043", "https://openalex.org/W2159704023", 
-"https://openalex.org/W2168536722", "https://openalex.org/W2510039296", "https://openalex.org/W2737706773", "https://openalex.org/W2756291343", "https://openalex.org/W2769264260", "https://openalex.org/W2811087384", "https://openalex.org/W2890106926", "https://openalex.org/W2911964244", "https://openalex.org/W2971929662", "https://openalex.org/W3039955899")</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W1875926297", "https://openalex.org/W2320542465", "https://openalex.org/W3092957444", "https://openalex.org/W2953079191", "https://openalex.org/W1774890144", "https://openalex.org/W4293426625", "https://openalex.org/W2728311169", "https://openalex.org/W3121128755", "https://openalex.org/W2051201630", "https://openalex.org/W2082471284")</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Christine M. Gould, EJ Chang-Patel, L. Palacios-Helgeson, Merri Pendergrass</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4388207118</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>Robotic-Assisted Myomectomy of a Retroperitoneal Broad Ligament Fibroid in a Patient with Mayer-Rokitanksy-Kuster-Hauser Syndrome</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>list(au_id = c("https://openalex.org/A5066847011", "https://openalex.org/A5078021157", "https://openalex.org/A5089348414", "https://openalex.org/A5037964846"), au_display_name = c("Christine M. Gould", "EJ Chang-Patel", "L. Palacios-Helgeson", "Merri Pendergrass"), au_orcid = c(NA, NA, NA, NA), author_position = c("first", "middle", "middle", "last"), au_affiliation_raw = c("", "", "", ""), institution_id = c(NA, NA, NA, NA), institution_display_name = c(NA, NA, NA, NA), institution_ror = c(NA, NA, 
-NA, NA), institution_country_code = c(NA, NA, NA, NA), institution_type = c(NA, NA, NA, NA), institution_lineage = c(NA, NA, NA, NA))</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>2023-11-01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Journal of Minimally Invasive Gynecology</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Elsevier BV</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.jmig.2023.08.139</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2023-11-01</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Journal of Minimally Invasive Gynecology</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>https://openalex.org/S73678819</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Elsevier BV</t>
-        </is>
-      </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1553-4650</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1016/j.jmig.2023.08.139</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>S45</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>S45</t>
-        </is>
-      </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>closed</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W4388207118</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W4388207118", doi = "https://doi.org/10.1016/j.jmig.2023.08.139")</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.jmig.2023.08.139</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
           <t>article</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W2007331282", "https://openalex.org/W2988525917", "https://openalex.org/W2387619261", "https://openalex.org/W2382222877", "https://openalex.org/W2353552613", "https://openalex.org/W2417164857", "https://openalex.org/W2357515542", "https://openalex.org/W1792745244", "https://openalex.org/W2358551392", "https://openalex.org/W2520046150")</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
         </is>
       </c>
     </row>

--- a/DOM_Banner/output/dept_banner/Merri Pendergrass_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Merri Pendergrass_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4323543232</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Proof-of-Concept Study of Using Supervised Machine Learning Algorithms to Predict Self-Care and Glycemic Control in Type 1 Diabetes Patients on Insulin Pump Therapy</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-06-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Endocrine Practice</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.eprac.2023.03.002</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36898528</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.eprac.2023.03.002</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; </t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4388207118</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Robotic-Assisted Myomectomy of a Retroperitoneal Broad Ligament Fibroid in a Patient with Mayer-Rokitanksy-Kuster-Hauser Syndrome</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-11-01</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Journal of Minimally Invasive Gynecology</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.jmig.2023.08.139</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.jmig.2023.08.139</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
